--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiubaIlchenko\GITCl\RozetkaTAQC\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25DFB89-9442-4ECD-9380-B7274D1E823D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D4875-AC8D-4195-B0FC-B8D16040E639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>selectServiceOpt2</t>
+    <t>p197128590</t>
   </si>
 </sst>
 </file>
@@ -356,9 +356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="A1 C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
